--- a/Scripts/SkillSheetOutput.xlsx
+++ b/Scripts/SkillSheetOutput.xlsx
@@ -33453,7 +33453,11 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Cursor</t>
+        </is>
+      </c>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
@@ -33479,7 +33483,11 @@
       <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>Windous10</t>
+        </is>
+      </c>
       <c r="AY2" t="inlineStr"/>
       <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr"/>
